--- a/Code/R/Magnan/PerfSearch_RF_Balanced_mRMR_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Balanced_mRMR_comb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tenfold_Avg" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="10">
   <si>
     <t>MCC</t>
   </si>
@@ -74,9 +74,6 @@
       </rPr>
       <t>MCC</t>
     </r>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -1030,11 +1027,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="65430656"/>
-        <c:axId val="65459328"/>
+        <c:axId val="59403648"/>
+        <c:axId val="59440128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65430656"/>
+        <c:axId val="59403648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1043,12 +1040,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65459328"/>
+        <c:crossAx val="59440128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65459328"/>
+        <c:axId val="59440128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000064"/>
@@ -1059,7 +1056,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65430656"/>
+        <c:crossAx val="59403648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1072,7 +1069,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4262,23 +4259,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69393024"/>
-        <c:axId val="69534080"/>
+        <c:axId val="101046144"/>
+        <c:axId val="101047680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69393024"/>
+        <c:axId val="101046144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69534080"/>
+        <c:crossAx val="101047680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69534080"/>
+        <c:axId val="101047680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4286,7 +4283,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69393024"/>
+        <c:crossAx val="101046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4299,7 +4296,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4309,9 +4306,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4713,23 +4708,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69636096"/>
-        <c:axId val="69637632"/>
+        <c:axId val="83478016"/>
+        <c:axId val="83479552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69636096"/>
+        <c:axId val="83478016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69637632"/>
+        <c:crossAx val="83479552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69637632"/>
+        <c:axId val="83479552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000064"/>
@@ -4740,20 +4735,19 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69636096"/>
+        <c:crossAx val="83478016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4763,9 +4757,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5167,23 +5159,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69932160"/>
-        <c:axId val="69933696"/>
+        <c:axId val="83511936"/>
+        <c:axId val="83513728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69932160"/>
+        <c:axId val="83511936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69933696"/>
+        <c:crossAx val="83513728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69933696"/>
+        <c:axId val="83513728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5191,20 +5183,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69932160"/>
+        <c:crossAx val="83511936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5214,9 +5205,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5618,23 +5607,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69949696"/>
-        <c:axId val="69951488"/>
+        <c:axId val="83537920"/>
+        <c:axId val="83539456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69949696"/>
+        <c:axId val="83537920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69951488"/>
+        <c:crossAx val="83539456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69951488"/>
+        <c:axId val="83539456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5642,20 +5631,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69949696"/>
+        <c:crossAx val="83537920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8327,7 +8315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
@@ -10294,8 +10282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10333,8 +10321,32 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2">
+        <v>440</v>
+      </c>
+      <c r="C2">
+        <v>0.83056942033179204</v>
+      </c>
+      <c r="D2">
+        <v>0.81454637688870002</v>
+      </c>
+      <c r="E2">
+        <v>0.76041666666666696</v>
+      </c>
+      <c r="F2">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="G2">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="H2">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="I2">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="J2">
+        <v>0.52235961585437196</v>
       </c>
     </row>
   </sheetData>
